--- a/Team-Data/2012-13/2-12-2012-13.xlsx
+++ b/Team-Data/2012-13/2-12-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -816,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -962,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
@@ -983,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>0.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1162,10 +1229,10 @@
         <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1180,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1332,13 +1399,13 @@
         <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1484,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1493,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1544,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1693,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1881,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
@@ -1908,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -1940,52 +2007,52 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>0.623</v>
+        <v>0.635</v>
       </c>
       <c r="H9" t="n">
         <v>48.7</v>
       </c>
       <c r="I9" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J9" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N9" t="n">
         <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="S9" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T9" t="n">
         <v>45.8</v>
@@ -1997,10 +2064,10 @@
         <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y9" t="n">
         <v>6.8</v>
@@ -2015,10 +2082,10 @@
         <v>105</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,10 +2276,10 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>20</v>
@@ -2233,7 +2300,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.577</v>
+        <v>0.588</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2334,28 +2401,28 @@
         <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2376,25 +2443,25 @@
         <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2454,7 +2521,7 @@
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.537</v>
+        <v>0.528</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
         <v>0.462</v>
@@ -2513,10 +2580,10 @@
         <v>10.3</v>
       </c>
       <c r="M12" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,22 +2592,22 @@
         <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
         <v>8.4</v>
@@ -2555,16 +2622,16 @@
         <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2573,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,25 +2670,25 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -2973,16 +3040,16 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0.472</v>
+        <v>0.462</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3059,61 +3126,61 @@
         <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
         <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
         <v>22.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
@@ -3170,10 +3237,10 @@
         <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -3214,70 +3281,70 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.647</v>
+        <v>0.64</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R16" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S16" t="n">
         <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
         <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W16" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" t="n">
         <v>19.8</v>
@@ -3286,16 +3353,16 @@
         <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
@@ -3307,13 +3374,13 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3331,13 +3398,13 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>13</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,16 +3422,16 @@
         <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>18</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.714</v>
+        <v>0.708</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.494</v>
+        <v>0.492</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3429,52 +3496,52 @@
         <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="U17" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V17" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W17" t="n">
         <v>8.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
         <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3504,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3513,13 +3580,13 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,13 +3601,13 @@
         <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3701,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
@@ -3716,7 +3783,7 @@
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3859,7 +3926,7 @@
         <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3883,10 +3950,10 @@
         <v>5</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>4</v>
@@ -4244,13 +4311,13 @@
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
         <v>39</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.765</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,79 +4391,79 @@
         <v>38.2</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.482</v>
+        <v>0.481</v>
       </c>
       <c r="L22" t="n">
         <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O22" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.825</v>
+        <v>0.829</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.2</v>
+        <v>106.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4429,13 +4496,13 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4444,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>4</v>
@@ -4453,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4596,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4620,7 +4687,7 @@
         <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4876,37 +4943,37 @@
         <v>0.443</v>
       </c>
       <c r="L25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M25" t="n">
         <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
         <v>11.3</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W25" t="n">
         <v>7.7</v>
@@ -4921,22 +4988,22 @@
         <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC25" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>26</v>
@@ -4975,16 +5042,16 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT25" t="n">
         <v>24</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>22</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -5002,7 +5069,7 @@
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.481</v>
+        <v>0.49</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
         <v>8.199999999999999</v>
@@ -5073,31 +5140,31 @@
         <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R26" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V26" t="n">
         <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
         <v>18.7</v>
@@ -5106,13 +5173,13 @@
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5127,13 +5194,13 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,22 +5212,22 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5169,7 +5236,7 @@
         <v>20</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5237,16 +5304,16 @@
         <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O27" t="n">
         <v>17.2</v>
@@ -5255,16 +5322,16 @@
         <v>22.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5276,37 +5343,37 @@
         <v>8.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC27" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF27" t="n">
         <v>23</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5315,16 +5382,16 @@
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>12</v>
@@ -5333,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5351,7 +5418,7 @@
         <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5363,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
@@ -5515,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>3</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.385</v>
+        <v>0.373</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
@@ -5604,28 +5671,28 @@
         <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
         <v>21.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P29" t="n">
         <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
         <v>40.2</v>
@@ -5637,10 +5704,10 @@
         <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
@@ -5652,25 +5719,25 @@
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI29" t="n">
         <v>18</v>
@@ -5688,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>16</v>
@@ -5700,10 +5767,10 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -5762,34 +5829,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.547</v>
+        <v>0.538</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
         <v>6.1</v>
       </c>
       <c r="M30" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N30" t="n">
         <v>0.365</v>
@@ -5801,46 +5868,46 @@
         <v>24</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
         <v>21.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5858,19 +5925,19 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5885,10 +5952,10 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5897,7 +5964,7 @@
         <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6046,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6067,7 +6134,7 @@
         <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-12-2012-13</t>
+          <t>2013-02-12</t>
         </is>
       </c>
     </row>
